--- a/ProjectJava/data/ListeProf.xlsx
+++ b/ProjectJava/data/ListeProf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DC2A02B0-6A30-41C3-8303-C470F66A7EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F897D4BA-E1C5-4992-9490-DE44456E605F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nom</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Mot de passe</t>
+  </si>
+  <si>
+    <t>Discipline</t>
   </si>
 </sst>
 </file>
@@ -356,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,10 +372,11 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,11 +393,14 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
